--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_3_7.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_3_7.xlsx
@@ -478,218 +478,218 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_23</t>
+          <t>model_3_7_4</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7897105388741911</v>
+        <v>0.3686433976866401</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1423416021016938</v>
+        <v>-0.01320909814009119</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7607948268101522</v>
+        <v>-4.101504988007466</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7049089360211523</v>
+        <v>-0.4466739788140937</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2327284812927246</v>
+        <v>0.698725700378418</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1103668808937073</v>
+        <v>0.8531020283699036</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2700268030166626</v>
+        <v>0.5738874077796936</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1855009943246841</v>
+        <v>0.7217071652412415</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_24</t>
+          <t>model_3_7_5</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7904188615232137</v>
+        <v>0.3705493784890861</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1617175028159995</v>
+        <v>0.03596296974446167</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7626670321375405</v>
+        <v>-4.416028201678258</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7085905489370212</v>
+        <v>-0.4361152690431001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2319445610046387</v>
+        <v>0.6966163516044617</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1078735142946243</v>
+        <v>0.811700165271759</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2679133415222168</v>
+        <v>0.609269380569458</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1831866502761841</v>
+        <v>0.7164397239685059</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_4</t>
+          <t>model_3_7_6</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.792455191151715</v>
+        <v>0.3751840325833462</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005728813475427086</v>
+        <v>0.07336303098998997</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8077219661022993</v>
+        <v>-4.464094969199189</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7297598476139102</v>
+        <v>-0.4077961353898132</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2296909391880035</v>
+        <v>0.691487193107605</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1279467642307281</v>
+        <v>0.7802100777626038</v>
       </c>
       <c r="H4" t="n">
-        <v>0.217053085565567</v>
+        <v>0.6146765351295471</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1698791533708572</v>
+        <v>0.7023119926452637</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_3</t>
+          <t>model_3_7_9</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7924619671032758</v>
+        <v>0.3758136480548316</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006182907153142181</v>
+        <v>0.08002573490063103</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8079121954584279</v>
+        <v>-4.510481406227851</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7299697773429187</v>
+        <v>-0.4067645649212259</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2296834737062454</v>
+        <v>0.6907902956008911</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1278883218765259</v>
+        <v>0.7746002078056335</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2168383300304413</v>
+        <v>0.6198947429656982</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1697471737861633</v>
+        <v>0.7017973661422729</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_5</t>
+          <t>model_3_7_10</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7924837794488448</v>
+        <v>0.3780373620372752</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002261351642740772</v>
+        <v>0.100909566770314</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8071575248153899</v>
+        <v>-4.563997677771314</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7289066780941081</v>
+        <v>-0.3937828850359306</v>
       </c>
       <c r="F6" t="n">
-        <v>0.229659304022789</v>
+        <v>0.6883293390274048</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1283929795026779</v>
+        <v>0.7570164203643799</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2176902592182159</v>
+        <v>0.6259149312973022</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1704154759645462</v>
+        <v>0.6953212022781372</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_6</t>
+          <t>model_3_7_7</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7925203396143784</v>
+        <v>0.378107107187138</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003780008572355165</v>
+        <v>0.09492858109353242</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8070455508374208</v>
+        <v>-4.47560572876631</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7289766320152939</v>
+        <v>-0.3897478260948024</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2296188622713089</v>
+        <v>0.6882521510124207</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1281975358724594</v>
+        <v>0.7620522975921631</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2178166508674622</v>
+        <v>0.6159714460372925</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1703714728355408</v>
+        <v>0.6933082342147827</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_7</t>
+          <t>model_3_7_11</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7927188617224288</v>
+        <v>0.3789374662801361</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04752331700368884</v>
+        <v>0.1088651615540336</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8005650002648764</v>
+        <v>-4.578295279176776</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7282412342512927</v>
+        <v>-0.3881914418912817</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2293991595506668</v>
+        <v>0.6873332262039185</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1225684732198715</v>
+        <v>0.7503179311752319</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2251322269439697</v>
+        <v>0.6275233626365662</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1708337813615799</v>
+        <v>0.6925317645072937</v>
       </c>
     </row>
     <row r="9">
@@ -699,338 +699,338 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7927480126983142</v>
+        <v>0.3796500855543768</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0402621259782926</v>
+        <v>0.1072547511145063</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8016003947819195</v>
+        <v>-4.473698810434736</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7283292858137564</v>
+        <v>-0.3785319648273051</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2293668836355209</v>
+        <v>0.6865445375442505</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1235028877854347</v>
+        <v>0.7516739368438721</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2239634096622467</v>
+        <v>0.6157568693161011</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1707784235477448</v>
+        <v>0.6877129077911377</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_18</t>
+          <t>model_3_7_3</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7929401616003697</v>
+        <v>0.3799422210243737</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2765598348490332</v>
+        <v>0.05535964063353349</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7664122724924055</v>
+        <v>-3.861543934984915</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7242022476975427</v>
+        <v>-0.3599421776360852</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2291542291641235</v>
+        <v>0.6862212419509888</v>
       </c>
       <c r="G10" t="n">
-        <v>0.09309515357017517</v>
+        <v>0.7953685522079468</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2636855244636536</v>
+        <v>0.546893298625946</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1733727753162384</v>
+        <v>0.6784389019012451</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_21</t>
+          <t>model_3_7_13</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7931218802386112</v>
+        <v>0.3818421508917313</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2947728701967258</v>
+        <v>0.1363708721810055</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7651199115822812</v>
+        <v>-4.630844007983214</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7250833451672691</v>
+        <v>-0.3691929173361947</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2289531081914902</v>
+        <v>0.6841185688972473</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09075143188238144</v>
+        <v>0.7271586656570435</v>
       </c>
       <c r="H11" t="n">
-        <v>0.265144407749176</v>
+        <v>0.6334347724914551</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1728188991546631</v>
+        <v>0.6830539107322693</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_22</t>
+          <t>model_3_7_15</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7931424860352428</v>
+        <v>0.3820027708219673</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2929461538703647</v>
+        <v>0.1401857291422071</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7654171197081437</v>
+        <v>-4.659192134294292</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7251364982647355</v>
+        <v>-0.3687922909085832</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2289303094148636</v>
+        <v>0.6839408278465271</v>
       </c>
       <c r="G12" t="n">
-        <v>0.09098649770021439</v>
+        <v>0.7239466309547424</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2648088932037354</v>
+        <v>0.636623740196228</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1727854907512665</v>
+        <v>0.6828539967536926</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_20</t>
+          <t>model_3_7_12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7933257993373175</v>
+        <v>0.3827403968779964</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3065855988503048</v>
+        <v>0.1429537614240083</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7651008460095304</v>
+        <v>-4.615242574452959</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7263474522723097</v>
+        <v>-0.3616541774047737</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2287274450063705</v>
+        <v>0.6831245422363281</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08923132717609406</v>
+        <v>0.7216160297393799</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2651659250259399</v>
+        <v>0.6316796541213989</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1720242500305176</v>
+        <v>0.6792929768562317</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_9</t>
+          <t>model_3_7_17</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7934004972245867</v>
+        <v>0.3830030732910701</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08086167690459178</v>
+        <v>0.1533396747848375</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8005801668678639</v>
+        <v>-4.712695908752921</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7318674467240738</v>
+        <v>-0.3627157345105898</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2286447733640671</v>
+        <v>0.6828337907791138</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1182783544063568</v>
+        <v>0.712871253490448</v>
       </c>
       <c r="H14" t="n">
-        <v>0.225115105509758</v>
+        <v>0.642642617225647</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1685542464256287</v>
+        <v>0.6798226237297058</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_19</t>
+          <t>model_3_7_18</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7936350422971394</v>
+        <v>0.3832732555695593</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3171137878982726</v>
+        <v>0.1553890895183483</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7659139679995117</v>
+        <v>-4.712680673021319</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7281755219133295</v>
+        <v>-0.3608821245231937</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2283851802349091</v>
+        <v>0.6825347542762756</v>
       </c>
       <c r="G15" t="n">
-        <v>0.08787650614976883</v>
+        <v>0.7111456990242004</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2642480432987213</v>
+        <v>0.6426408290863037</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1708750873804092</v>
+        <v>0.6789078712463379</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_13</t>
+          <t>model_3_7_19</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7939491851499086</v>
+        <v>0.3837774447646137</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2642084328703956</v>
+        <v>0.1593485079326379</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7763811208478932</v>
+        <v>-4.712320075153866</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7312877028804401</v>
+        <v>-0.3573068610524328</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2280375212430954</v>
+        <v>0.6819767355918884</v>
       </c>
       <c r="G16" t="n">
-        <v>0.09468457847833633</v>
+        <v>0.7078119516372681</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2524321973323822</v>
+        <v>0.6426002979278564</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1689186841249466</v>
+        <v>0.6771242022514343</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_10</t>
+          <t>model_3_7_24</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7939959507693095</v>
+        <v>0.3840521931831782</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1176882257546474</v>
+        <v>0.1657461388625694</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7997323848407063</v>
+        <v>-4.754594924942715</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7351420255100287</v>
+        <v>-0.3560761554768501</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2279857844114304</v>
+        <v>0.6816727519035339</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1135393753647804</v>
+        <v>0.7024252414703369</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2260721176862717</v>
+        <v>0.6473559141159058</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1664957851171494</v>
+        <v>0.6765103340148926</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_12</t>
+          <t>model_3_7_20</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7940717700949026</v>
+        <v>0.384352227256166</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2708793657124051</v>
+        <v>0.1639538882617981</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7764806407610882</v>
+        <v>-4.712091648486959</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7320946985282529</v>
+        <v>-0.3531682164400634</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2279018610715866</v>
+        <v>0.6813406348228455</v>
       </c>
       <c r="G18" t="n">
-        <v>0.09382613748311996</v>
+        <v>0.7039343118667603</v>
       </c>
       <c r="H18" t="n">
-        <v>0.252319872379303</v>
+        <v>0.6425746083259583</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1684114187955856</v>
+        <v>0.6750596165657043</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_16</t>
+          <t>model_3_7_23</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7942916158502211</v>
+        <v>0.3852472039705374</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2785713269073176</v>
+        <v>0.1749138050700778</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7765606224895207</v>
+        <v>-4.748098869888484</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7329959027873324</v>
+        <v>-0.3471945400800731</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2276585847139359</v>
+        <v>0.6803502440452576</v>
       </c>
       <c r="G19" t="n">
-        <v>0.09283630549907684</v>
+        <v>0.6947062611579895</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2522295713424683</v>
+        <v>0.6466251611709595</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1678448915481567</v>
+        <v>0.6720795035362244</v>
       </c>
     </row>
     <row r="20">
@@ -1040,152 +1040,152 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.794353020347262</v>
+        <v>0.3853622381308275</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2909679698115702</v>
+        <v>0.1674220446012945</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7755920181482663</v>
+        <v>-4.651841163442049</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7335208016693311</v>
+        <v>-0.3436750008399758</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2275905907154083</v>
+        <v>0.6802229285240173</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09124105423688889</v>
+        <v>0.7010142207145691</v>
       </c>
       <c r="H20" t="n">
-        <v>0.253322958946228</v>
+        <v>0.6357967853546143</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1675149202346802</v>
+        <v>0.6703237295150757</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_15</t>
+          <t>model_3_7_22</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7944327742009074</v>
+        <v>0.3853921067522368</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2905289406307267</v>
+        <v>0.1753801031772197</v>
       </c>
       <c r="D21" t="n">
-        <v>0.77613256754371</v>
+        <v>-4.740251391987956</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7339304608058599</v>
+        <v>-0.3459460714044038</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2275023460388184</v>
+        <v>0.6801897883415222</v>
       </c>
       <c r="G21" t="n">
-        <v>0.09129755198955536</v>
+        <v>0.694313645362854</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2527127861976624</v>
+        <v>0.6457424163818359</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1672574132680893</v>
+        <v>0.6714567542076111</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_11</t>
+          <t>model_3_7_21</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.7945630214670638</v>
+        <v>0.3856499151072567</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2955740568427163</v>
+        <v>0.1769404972309508</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7773534989416591</v>
+        <v>-4.733684753118875</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7355085622096742</v>
+        <v>-0.3438539359620127</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2273582071065903</v>
+        <v>0.6799045205116272</v>
       </c>
       <c r="G22" t="n">
-        <v>0.09064832329750061</v>
+        <v>0.6929998397827148</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2513345181941986</v>
+        <v>0.6450036764144897</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1662653684616089</v>
+        <v>0.6704129576683044</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_17</t>
+          <t>model_3_7_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.7947098522320549</v>
+        <v>0.3857241347267666</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2991754601440431</v>
+        <v>0.09457723019048725</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7766174962952852</v>
+        <v>-3.727471631867465</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7352773105596826</v>
+        <v>-0.3106734320433244</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2271957099437714</v>
+        <v>0.6798223853111267</v>
       </c>
       <c r="G23" t="n">
-        <v>0.09018488228321075</v>
+        <v>0.7623480558395386</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2521653771400452</v>
+        <v>0.531810998916626</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1664107292890549</v>
+        <v>0.6538600921630859</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_2</t>
+          <t>model_3_7_16</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.7978892040357972</v>
+        <v>0.3862736094839339</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2985986983743792</v>
+        <v>0.1770572397193503</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8159376356442449</v>
+        <v>-4.6815391450447</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7684423528503843</v>
+        <v>-0.3382171602763813</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2236771285533905</v>
+        <v>0.6792142987251282</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09025910496711731</v>
+        <v>0.6929015517234802</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2077788114547729</v>
+        <v>0.6391376256942749</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1455624252557755</v>
+        <v>0.6676009297370911</v>
       </c>
     </row>
     <row r="25">
@@ -1195,28 +1195,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.7994712468265911</v>
+        <v>0.4229242061289731</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2536956806436925</v>
+        <v>0.3516312149589934</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8461051452829724</v>
+        <v>-1.583865170870437</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7890688509504121</v>
+        <v>0.1464801658792888</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2219262272119522</v>
+        <v>0.6386528611183167</v>
       </c>
       <c r="G25" t="n">
-        <v>0.09603739529848099</v>
+        <v>0.5459136962890625</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1737242341041565</v>
+        <v>0.2906686663627625</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1325961351394653</v>
+        <v>0.4257983565330505</v>
       </c>
     </row>
     <row r="26">
@@ -1226,28 +1226,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8004704529451759</v>
+        <v>0.4265960472444684</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2962628756287465</v>
+        <v>0.3129803901681678</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8421311722579389</v>
+        <v>-2.099965243258279</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7903241837042715</v>
+        <v>0.05717958372558618</v>
       </c>
       <c r="F26" t="n">
-        <v>0.220820426940918</v>
+        <v>0.6345891952514648</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0905596911907196</v>
+        <v>0.5784569978713989</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1782102435827255</v>
+        <v>0.3487267196178436</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1318070143461227</v>
+        <v>0.4703480005264282</v>
       </c>
     </row>
   </sheetData>
